--- a/Data/Config Prueba.xlsx
+++ b/Data/Config Prueba.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpalatam\Documents\UiPath\Consumidor Proceso de Descarga de Reportes Diarios Customer Service\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpalatam\Documents\UiPath\RPA_0014 Consumidor Proceso de Descarga de Reportes Diarios Customer Service\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4568,7 +4568,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
